--- a/01-04. 컴퓨팅사고로의전환 - 문제모음 (B반).xlsx
+++ b/01-04. 컴퓨팅사고로의전환 - 문제모음 (B반).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jaeminki/programming/coding_test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEB991B7-2DC6-1E46-A057-C046DA33B769}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03DBFC47-F5CA-A044-9BA9-0E72726818D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28800" yWindow="500" windowWidth="33600" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="63">
   <si>
     <t>#</t>
   </si>
@@ -613,7 +613,7 @@
       <pane xSplit="6" ySplit="1" topLeftCell="G6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I36" sqref="I36"/>
+      <selection pane="bottomRight" activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1399,7 +1399,9 @@
         <v>57</v>
       </c>
       <c r="F36" s="7"/>
-      <c r="G36" s="7"/>
+      <c r="G36" s="11" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="37" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="3">
